--- a/p10/docs/MASS_Scrum.xlsx
+++ b/p10/docs/MASS_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipin\Desktop\VM\cse1325\P10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783299FE-2290-4650-BA79-9219BC7EFEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D742510-C937-415B-B3CD-7EB565555E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="196">
   <si>
     <t>Product Name:</t>
   </si>
@@ -743,9 +743,6 @@
     <t>In Work</t>
   </si>
   <si>
-    <t>create client class</t>
-  </si>
-  <si>
     <t>Add arraylist to shelther</t>
   </si>
   <si>
@@ -753,6 +750,27 @@
   </si>
   <si>
     <t>3 commands: New, list, list avilable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save open </t>
+  </si>
+  <si>
+    <t>Updata display accordint to anima an client</t>
+  </si>
+  <si>
+    <t>Dialog box for name and phone</t>
+  </si>
+  <si>
+    <t>provide active lisenter</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 4</t>
+  </si>
+  <si>
+    <t>Lclient</t>
+  </si>
+  <si>
+    <t>save and open clients in a  file</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1291,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,28 +2517,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3577,8 +3595,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -3860,11 +3878,11 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="2"/>
@@ -3880,11 +3898,11 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="2"/>
@@ -6628,7 +6646,9 @@
       <c r="F42" s="16">
         <v>4</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="H42" s="22" t="s">
         <v>36</v>
       </c>
@@ -6659,7 +6679,9 @@
       <c r="F43" s="16">
         <v>4</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="H43" s="22" t="s">
         <v>106</v>
       </c>
@@ -10706,8 +10728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -10811,7 +10833,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -10826,7 +10848,7 @@
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -10844,7 +10866,7 @@
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -10862,7 +10884,7 @@
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -10880,7 +10902,7 @@
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -10898,11 +10920,11 @@
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -10916,7 +10938,7 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -10934,7 +10956,7 @@
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10983,10 +11005,12 @@
       <c r="B17" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="41" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
@@ -10998,7 +11022,9 @@
       <c r="D18" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="41" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
@@ -11007,10 +11033,12 @@
       <c r="B19" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="41"/>
+      <c r="D19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
@@ -11020,41 +11048,67 @@
         <v>106</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="41"/>
+        <v>188</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
+      <c r="B21" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
+      <c r="B23" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="B24" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
@@ -11682,7 +11736,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D100" xr:uid="{00000000-0002-0000-0400-000005000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D20:D100 D17:D18" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/p10/docs/MASS_Scrum.xlsx
+++ b/p10/docs/MASS_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipin\Desktop\VM\cse1325\P10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D742510-C937-415B-B3CD-7EB565555E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C6B61B-7DB0-4344-9D3E-22EAA9C811E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="202">
   <si>
     <t>Product Name:</t>
   </si>
@@ -740,9 +740,6 @@
     <t xml:space="preserve">adding JFileChooser </t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>Add arraylist to shelther</t>
   </si>
   <si>
@@ -771,6 +768,27 @@
   </si>
   <si>
     <t>save and open clients in a  file</t>
+  </si>
+  <si>
+    <t>Display the clients</t>
+  </si>
+  <si>
+    <t>Completed Day 6</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Make a generic Method</t>
+  </si>
+  <si>
+    <t>Make a create method for animals</t>
+  </si>
+  <si>
+    <t>Adapt the code for onnewDogClick and onNewLizardClick</t>
+  </si>
+  <si>
+    <t>Make new animal and use the genric method to create it</t>
   </si>
 </sst>
 </file>
@@ -1291,10 +1309,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2517,22 +2535,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3595,8 +3613,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -3878,11 +3896,11 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="2"/>
@@ -3898,11 +3916,11 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="2"/>
@@ -4559,7 +4577,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>36</v>
@@ -6647,7 +6665,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>36</v>
@@ -6680,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>106</v>
@@ -10728,8 +10746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -10833,7 +10851,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -10848,7 +10866,7 @@
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -10866,7 +10884,7 @@
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -10884,7 +10902,7 @@
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -10902,7 +10920,7 @@
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -10920,7 +10938,7 @@
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -10942,7 +10960,7 @@
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -11006,7 +11024,7 @@
         <v>106</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>153</v>
@@ -11020,7 +11038,7 @@
         <v>106</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>153</v>
@@ -11034,7 +11052,7 @@
         <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>153</v>
@@ -11048,7 +11066,7 @@
         <v>106</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>153</v>
@@ -11062,7 +11080,7 @@
         <v>106</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>153</v>
@@ -11076,7 +11094,7 @@
         <v>106</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>153</v>
@@ -11090,7 +11108,7 @@
         <v>106</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E23" s="41" t="s">
         <v>153</v>
@@ -11101,10 +11119,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="39" t="s">
         <v>194</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>195</v>
       </c>
       <c r="E24" s="41" t="s">
         <v>153</v>
@@ -11114,41 +11132,71 @@
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
+      <c r="B28" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
+      <c r="B29" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
@@ -11770,7 +11818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
